--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt1-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angpt1-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -91,10 +94,7 @@
     <t>Tek</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
+    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H2">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J2">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N2">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O2">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P2">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q2">
-        <v>874.9771877323773</v>
+        <v>11.0765633345475</v>
       </c>
       <c r="R2">
-        <v>5249.863126394263</v>
+        <v>44.30625333819001</v>
       </c>
       <c r="S2">
-        <v>0.4041995079265401</v>
+        <v>0.01156691614093645</v>
       </c>
       <c r="T2">
-        <v>0.3750344474150535</v>
+        <v>0.007751997162500938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H3">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J3">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O3">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P3">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q3">
-        <v>34.94053878387022</v>
+        <v>0.464925160907</v>
       </c>
       <c r="R3">
-        <v>314.4648490548319</v>
+        <v>2.789550965442</v>
       </c>
       <c r="S3">
-        <v>0.01614093347934028</v>
+        <v>0.0004855071185527009</v>
       </c>
       <c r="T3">
-        <v>0.02246442393970334</v>
+        <v>0.0004880708599686245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H4">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J4">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N4">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O4">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P4">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q4">
-        <v>26.16811907374</v>
+        <v>0.0122451149095</v>
       </c>
       <c r="R4">
-        <v>157.00871444244</v>
+        <v>0.073470689457</v>
       </c>
       <c r="S4">
-        <v>0.01208847613545322</v>
+        <v>1.27871987922961E-05</v>
       </c>
       <c r="T4">
-        <v>0.0112162307935657</v>
+        <v>1.28547221506254E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H5">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I5">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J5">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N5">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O5">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P5">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q5">
-        <v>551.8537962620355</v>
+        <v>0.08835026361975</v>
       </c>
       <c r="R5">
-        <v>4966.68416635832</v>
+        <v>0.353401054479</v>
       </c>
       <c r="S5">
-        <v>0.2549312553788926</v>
+        <v>9.226147672824414E-05</v>
       </c>
       <c r="T5">
-        <v>0.3548049933817268</v>
+        <v>6.183244497418756E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>12.45740533333333</v>
+        <v>0.1657605</v>
       </c>
       <c r="H6">
-        <v>37.37221599999999</v>
+        <v>0.331521</v>
       </c>
       <c r="I6">
-        <v>0.6879717553992524</v>
+        <v>0.01219521989678654</v>
       </c>
       <c r="J6">
-        <v>0.7643712760457567</v>
+        <v>0.008352702481122073</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N6">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O6">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P6">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q6">
-        <v>1.323902446863111</v>
+        <v>0.03614772375599999</v>
       </c>
       <c r="R6">
-        <v>11.915122021768</v>
+        <v>0.216886342536</v>
       </c>
       <c r="S6">
-        <v>0.000611582479026282</v>
+        <v>3.77479617768528E-05</v>
       </c>
       <c r="T6">
-        <v>0.0008511805157072409</v>
+        <v>3.794729152769663E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H7">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I7">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J7">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N7">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O7">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P7">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q7">
-        <v>381.3586938723482</v>
+        <v>832.4373970807068</v>
       </c>
       <c r="R7">
-        <v>1525.434775489393</v>
+        <v>4994.624382484241</v>
       </c>
       <c r="S7">
-        <v>0.1761703031437871</v>
+        <v>0.8692889006990274</v>
       </c>
       <c r="T7">
-        <v>0.1089724768665153</v>
+        <v>0.8738792184759703</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H8">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I8">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J8">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O8">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P8">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q8">
-        <v>15.22882930050567</v>
+        <v>34.94053878387022</v>
       </c>
       <c r="R8">
-        <v>91.37297580303398</v>
+        <v>314.464849054832</v>
       </c>
       <c r="S8">
-        <v>0.007035023765036029</v>
+        <v>0.03648733545102551</v>
       </c>
       <c r="T8">
-        <v>0.006527410841755799</v>
+        <v>0.05502001261474593</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H9">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I9">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J9">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N9">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O9">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P9">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q9">
-        <v>11.40537130678875</v>
+        <v>0.9202575992524444</v>
       </c>
       <c r="R9">
-        <v>45.621485227155</v>
+        <v>8.282318393272</v>
       </c>
       <c r="S9">
-        <v>0.005268760756918765</v>
+        <v>0.0009609968504773032</v>
       </c>
       <c r="T9">
-        <v>0.003259061825135892</v>
+        <v>0.001449107154096292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H10">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I10">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J10">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N10">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O10">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P10">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q10">
-        <v>240.5254055781817</v>
+        <v>6.639790813964</v>
       </c>
       <c r="R10">
-        <v>1443.15243346909</v>
+        <v>39.838744883784</v>
       </c>
       <c r="S10">
-        <v>0.1111117546167027</v>
+        <v>0.006933730365531219</v>
       </c>
       <c r="T10">
-        <v>0.1030944735874479</v>
+        <v>0.006970344229727384</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4295585</v>
+        <v>12.45740533333333</v>
       </c>
       <c r="H11">
-        <v>10.859117</v>
+        <v>37.372216</v>
       </c>
       <c r="I11">
-        <v>0.2998524004266644</v>
+        <v>0.91650783741242</v>
       </c>
       <c r="J11">
-        <v>0.2221007477324912</v>
+        <v>0.9415964638989084</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1062743333333333</v>
+        <v>0.218072</v>
       </c>
       <c r="N11">
-        <v>0.318823</v>
+        <v>0.6542159999999999</v>
       </c>
       <c r="O11">
-        <v>0.000888964516677521</v>
+        <v>0.003095308005622714</v>
       </c>
       <c r="P11">
-        <v>0.001113569468636453</v>
+        <v>0.004543115430420422</v>
       </c>
       <c r="Q11">
-        <v>0.5770227098818334</v>
+        <v>2.716611295850666</v>
       </c>
       <c r="R11">
-        <v>3.462136259291</v>
+        <v>24.449501662656</v>
       </c>
       <c r="S11">
-        <v>0.0002665581442198843</v>
+        <v>0.002836874046358625</v>
       </c>
       <c r="T11">
-        <v>0.0002473246116362291</v>
+        <v>0.004277781424368437</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H12">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I12">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J12">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>70.2375145</v>
+        <v>66.82269500000001</v>
       </c>
       <c r="N12">
-        <v>140.475029</v>
+        <v>133.64539</v>
       </c>
       <c r="O12">
-        <v>0.5875234044920492</v>
+        <v>0.9484795058090217</v>
       </c>
       <c r="P12">
-        <v>0.4906443493732269</v>
+        <v>0.9280825194026978</v>
       </c>
       <c r="Q12">
-        <v>15.48549894686333</v>
+        <v>61.52545949926501</v>
       </c>
       <c r="R12">
-        <v>92.91299368118001</v>
+        <v>246.10183799706</v>
       </c>
       <c r="S12">
-        <v>0.007153593421721959</v>
+        <v>0.06424915463995338</v>
       </c>
       <c r="T12">
-        <v>0.006637425091658058</v>
+        <v>0.04305895006010479</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H13">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I13">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J13">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.414401999999999</v>
       </c>
       <c r="O13">
-        <v>0.02346162230159168</v>
+        <v>0.03981126397570188</v>
       </c>
       <c r="P13">
-        <v>0.02938941407625393</v>
+        <v>0.05843268823134937</v>
       </c>
       <c r="Q13">
-        <v>0.6183837523155555</v>
+        <v>2.582455703418</v>
       </c>
       <c r="R13">
-        <v>5.56545377084</v>
+        <v>15.494734220508</v>
       </c>
       <c r="S13">
-        <v>0.0002856650572153721</v>
+        <v>0.002696779466420966</v>
       </c>
       <c r="T13">
-        <v>0.0003975792947947905</v>
+        <v>0.00271101992746361</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9207270000000001</v>
+      </c>
+      <c r="H14">
+        <v>1.841454</v>
+      </c>
+      <c r="I14">
+        <v>0.06773910690368684</v>
+      </c>
+      <c r="J14">
+        <v>0.04639560508888476</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G14">
-        <v>0.2204733333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.66142</v>
-      </c>
-      <c r="I14">
-        <v>0.01217584417408306</v>
-      </c>
-      <c r="J14">
-        <v>0.01352797622175213</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>2.1006075</v>
+        <v>0.07387233333333333</v>
       </c>
       <c r="N14">
-        <v>4.201215</v>
+        <v>0.221617</v>
       </c>
       <c r="O14">
-        <v>0.01757118085238526</v>
+        <v>0.001048541879565906</v>
       </c>
       <c r="P14">
-        <v>0.01467379942845245</v>
+        <v>0.001538989588061868</v>
       </c>
       <c r="Q14">
-        <v>0.46312793755</v>
+        <v>0.068016251853</v>
       </c>
       <c r="R14">
-        <v>2.7787676253</v>
+        <v>0.408097511118</v>
       </c>
       <c r="S14">
-        <v>0.0002139439600132748</v>
+        <v>7.102729047290767E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001985068097508648</v>
+        <v>7.140235316362385E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1343,49 +1343,49 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2204733333333333</v>
+        <v>0.9207270000000001</v>
       </c>
       <c r="H15">
-        <v>0.66142</v>
+        <v>1.841454</v>
       </c>
       <c r="I15">
-        <v>0.01217584417408306</v>
+        <v>0.06773910690368684</v>
       </c>
       <c r="J15">
-        <v>0.01352797622175213</v>
+        <v>0.04639560508888476</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.29925666666667</v>
+        <v>0.5329995</v>
       </c>
       <c r="N15">
-        <v>132.89777</v>
+        <v>1.065999</v>
       </c>
       <c r="O15">
-        <v>0.3705548278372964</v>
+        <v>0.007565380330087788</v>
       </c>
       <c r="P15">
-        <v>0.4641788676534301</v>
+        <v>0.007402687347470469</v>
       </c>
       <c r="Q15">
-        <v>9.76680478148889</v>
+        <v>0.4907470306365</v>
       </c>
       <c r="R15">
-        <v>87.90124303340001</v>
+        <v>1.962988122546</v>
       </c>
       <c r="S15">
-        <v>0.004511817841701095</v>
+        <v>0.0005124721069468663</v>
       </c>
       <c r="T15">
-        <v>0.006279400684255432</v>
+        <v>0.0003434521587697237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9207270000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.841454</v>
+      </c>
+      <c r="I16">
+        <v>0.06773910690368684</v>
+      </c>
+      <c r="J16">
+        <v>0.04639560508888476</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.218072</v>
+      </c>
+      <c r="N16">
+        <v>0.6542159999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.003095308005622714</v>
+      </c>
+      <c r="P16">
+        <v>0.004543115430420422</v>
+      </c>
+      <c r="Q16">
+        <v>0.200784778344</v>
+      </c>
+      <c r="R16">
+        <v>1.204708670064</v>
+      </c>
+      <c r="S16">
+        <v>0.0002096733998927148</v>
+      </c>
+      <c r="T16">
+        <v>0.0002107805893830046</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.145077</v>
+      </c>
+      <c r="I17">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J17">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>66.82269500000001</v>
+      </c>
+      <c r="N17">
+        <v>133.64539</v>
+      </c>
+      <c r="O17">
+        <v>0.9484795058090217</v>
+      </c>
+      <c r="P17">
+        <v>0.9280825194026978</v>
+      </c>
+      <c r="Q17">
+        <v>3.231478707505001</v>
+      </c>
+      <c r="R17">
+        <v>19.38887224503</v>
+      </c>
+      <c r="S17">
+        <v>0.003374534329104617</v>
+      </c>
+      <c r="T17">
+        <v>0.003392353704121756</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.145077</v>
+      </c>
+      <c r="I18">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J18">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.804800666666666</v>
+      </c>
+      <c r="N18">
+        <v>8.414401999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.03981126397570188</v>
+      </c>
+      <c r="P18">
+        <v>0.05843268823134937</v>
+      </c>
+      <c r="Q18">
+        <v>0.1356373554393333</v>
+      </c>
+      <c r="R18">
+        <v>1.220736198954</v>
+      </c>
+      <c r="S18">
+        <v>0.000141641939702704</v>
+      </c>
+      <c r="T18">
+        <v>0.0002135848291712082</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.145077</v>
+      </c>
+      <c r="I19">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J19">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>0.2204733333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.66142</v>
-      </c>
-      <c r="I16">
-        <v>0.01217584417408306</v>
-      </c>
-      <c r="J16">
-        <v>0.01352797622175213</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="M19">
+        <v>0.07387233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.221617</v>
+      </c>
+      <c r="O19">
+        <v>0.001048541879565906</v>
+      </c>
+      <c r="P19">
+        <v>0.001538989588061868</v>
+      </c>
+      <c r="Q19">
+        <v>0.003572392167666667</v>
+      </c>
+      <c r="R19">
+        <v>0.03215152950900001</v>
+      </c>
+      <c r="S19">
+        <v>3.730539823399707E-06</v>
+      </c>
+      <c r="T19">
+        <v>5.625358651326103E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M16">
-        <v>0.1062743333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.318823</v>
-      </c>
-      <c r="O16">
-        <v>0.000888964516677521</v>
-      </c>
-      <c r="P16">
-        <v>0.001113569468636453</v>
-      </c>
-      <c r="Q16">
-        <v>0.02343065651777778</v>
-      </c>
-      <c r="R16">
-        <v>0.21087590866</v>
-      </c>
-      <c r="S16">
-        <v>1.082389343135455E-05</v>
-      </c>
-      <c r="T16">
-        <v>1.506434129298309E-05</v>
+      <c r="G20">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.145077</v>
+      </c>
+      <c r="I20">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J20">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.5329995</v>
+      </c>
+      <c r="N20">
+        <v>1.065999</v>
+      </c>
+      <c r="O20">
+        <v>0.007565380330087788</v>
+      </c>
+      <c r="P20">
+        <v>0.007402687347470469</v>
+      </c>
+      <c r="Q20">
+        <v>0.0257753228205</v>
+      </c>
+      <c r="R20">
+        <v>0.154651936923</v>
+      </c>
+      <c r="S20">
+        <v>2.691638088145945E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.705851399917414E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04835900000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.145077</v>
+      </c>
+      <c r="I21">
+        <v>0.003557835787106702</v>
+      </c>
+      <c r="J21">
+        <v>0.003655228531084749</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.218072</v>
+      </c>
+      <c r="N21">
+        <v>0.6542159999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.003095308005622714</v>
+      </c>
+      <c r="P21">
+        <v>0.004543115430420422</v>
+      </c>
+      <c r="Q21">
+        <v>0.010545743848</v>
+      </c>
+      <c r="R21">
+        <v>0.094911694632</v>
+      </c>
+      <c r="S21">
+        <v>1.101259759452236E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.660612514128409E-05</v>
       </c>
     </row>
   </sheetData>
